--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Runtime</t>
-  </si>
-  <si>
-    <t>#Infection runs</t>
   </si>
 </sst>
 </file>
@@ -117,8 +114,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.5963779887349586E-2"/>
-          <c:y val="7.9919390418078079E-2"/>
+          <c:x val="5.1588907606738059E-2"/>
+          <c:y val="6.8310668663158144E-2"/>
           <c:w val="0.87436064323350948"/>
           <c:h val="0.8536293006109279"/>
         </c:manualLayout>
@@ -470,6 +467,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -479,29 +477,49 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="167221504"/>
-        <c:axId val="167223296"/>
+        <c:axId val="156466176"/>
+        <c:axId val="156468352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="167221504"/>
+        <c:axId val="156466176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800"/>
+                  <a:t>Run</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167223296"/>
+        <c:crossAx val="156468352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167223296"/>
+        <c:axId val="156468352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3"/>
@@ -510,460 +528,34 @@
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE" sz="1800"/>
+                  <a:t>Runtime [sec]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167221504"/>
+        <c:crossAx val="156466176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Push Algorithm</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> - Number of infection runs needed</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Infection runs</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:alpha val="58000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$B$2:$B$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>26</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="179507200"/>
-        <c:axId val="179508736"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="179507200"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179508736"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="179508736"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="30"/>
-          <c:min val="20"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179507200"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -983,13 +575,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>476249</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1003,36 +595,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagramm 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1328,820 +890,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2.4380000000000002</v>
       </c>
-      <c r="B2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.411</v>
       </c>
-      <c r="B3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.6720000000000002</v>
       </c>
-      <c r="B4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.3969999999999998</v>
       </c>
-      <c r="B5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.5659999999999998</v>
       </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.5579999999999998</v>
       </c>
-      <c r="B7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.4620000000000002</v>
       </c>
-      <c r="B8">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.3570000000000002</v>
       </c>
-      <c r="B9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.3580000000000001</v>
       </c>
-      <c r="B10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2.3580000000000001</v>
       </c>
-      <c r="B11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2.8639999999999999</v>
       </c>
-      <c r="B12">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.3620000000000001</v>
       </c>
-      <c r="B13">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.3570000000000002</v>
       </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2.3610000000000002</v>
       </c>
-      <c r="B15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.4609999999999999</v>
       </c>
-      <c r="B16">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.4569999999999999</v>
       </c>
-      <c r="B17">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2.464</v>
       </c>
-      <c r="B18">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2.6560000000000001</v>
       </c>
-      <c r="B19">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.3570000000000002</v>
       </c>
-      <c r="B20">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2.3540000000000001</v>
       </c>
-      <c r="B21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2.3769999999999998</v>
       </c>
-      <c r="B22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.46</v>
       </c>
-      <c r="B23">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.6640000000000001</v>
       </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.4670000000000001</v>
       </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.67</v>
       </c>
-      <c r="B26">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2.4649999999999999</v>
       </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.3809999999999998</v>
       </c>
-      <c r="B28">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.3660000000000001</v>
       </c>
-      <c r="B29">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.4769999999999999</v>
       </c>
-      <c r="B30">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.3780000000000001</v>
       </c>
-      <c r="B31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.3860000000000001</v>
       </c>
-      <c r="B32">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.383</v>
       </c>
-      <c r="B33">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.379</v>
       </c>
-      <c r="B34">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.6789999999999998</v>
       </c>
-      <c r="B35">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.4860000000000002</v>
       </c>
-      <c r="B36">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.4009999999999998</v>
       </c>
-      <c r="B37">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.3959999999999999</v>
       </c>
-      <c r="B38">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.4809999999999999</v>
       </c>
-      <c r="B39">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.4780000000000002</v>
       </c>
-      <c r="B40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.3839999999999999</v>
       </c>
-      <c r="B41">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.3839999999999999</v>
       </c>
-      <c r="B42">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.2850000000000001</v>
       </c>
-      <c r="B43">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.3820000000000001</v>
       </c>
-      <c r="B44">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.3849999999999998</v>
       </c>
-      <c r="B45">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2.6909999999999998</v>
       </c>
-      <c r="B46">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.383</v>
       </c>
-      <c r="B47">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.4729999999999999</v>
       </c>
-      <c r="B48">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2.2890000000000001</v>
       </c>
-      <c r="B49">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.4860000000000002</v>
       </c>
-      <c r="B50">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2.4820000000000002</v>
       </c>
-      <c r="B51">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2.4279999999999999</v>
       </c>
-      <c r="B52">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2.4849999999999999</v>
       </c>
-      <c r="B53">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2.492</v>
       </c>
-      <c r="B54">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2.379</v>
       </c>
-      <c r="B55">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2.1949999999999998</v>
       </c>
-      <c r="B56">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2.38</v>
       </c>
-      <c r="B57">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.3940000000000001</v>
       </c>
-      <c r="B58">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2.4809999999999999</v>
       </c>
-      <c r="B59">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2.4860000000000002</v>
       </c>
-      <c r="B60">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2.3759999999999999</v>
       </c>
-      <c r="B61">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2.585</v>
       </c>
-      <c r="B62">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2.2789999999999999</v>
       </c>
-      <c r="B63">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2.3929999999999998</v>
       </c>
-      <c r="B64">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2.4830000000000001</v>
       </c>
-      <c r="B65">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2.2850000000000001</v>
       </c>
-      <c r="B66">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2.4750000000000001</v>
       </c>
-      <c r="B67">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2.2810000000000001</v>
       </c>
-      <c r="B68">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.391</v>
       </c>
-      <c r="B69">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2.48</v>
       </c>
-      <c r="B70">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2.39</v>
       </c>
-      <c r="B71">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2.5870000000000002</v>
       </c>
-      <c r="B72">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2.399</v>
       </c>
-      <c r="B73">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.3759999999999999</v>
       </c>
-      <c r="B74">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.496</v>
       </c>
-      <c r="B75">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2.6859999999999999</v>
       </c>
-      <c r="B76">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.4929999999999999</v>
       </c>
-      <c r="B77">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2.2810000000000001</v>
       </c>
-      <c r="B78">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2.4870000000000001</v>
       </c>
-      <c r="B79">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2.3780000000000001</v>
       </c>
-      <c r="B80">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2.3839999999999999</v>
       </c>
-      <c r="B81">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2.2770000000000001</v>
       </c>
-      <c r="B82">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2.4870000000000001</v>
       </c>
-      <c r="B83">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2.4910000000000001</v>
       </c>
-      <c r="B84">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2.2829999999999999</v>
       </c>
-      <c r="B85">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2.883</v>
       </c>
-      <c r="B86">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2.3839999999999999</v>
       </c>
-      <c r="B87">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2.3839999999999999</v>
       </c>
-      <c r="B88">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2.387</v>
       </c>
-      <c r="B89">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2.4820000000000002</v>
       </c>
-      <c r="B90">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2.5499999999999998</v>
       </c>
-      <c r="B91">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2.38</v>
       </c>
-      <c r="B92">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2.41</v>
       </c>
-      <c r="B93">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2.4790000000000001</v>
       </c>
-      <c r="B94">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2.4790000000000001</v>
       </c>
-      <c r="B95">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2.399</v>
       </c>
-      <c r="B96">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2.6840000000000002</v>
       </c>
-      <c r="B97">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2.3820000000000001</v>
       </c>
-      <c r="B98">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2.375</v>
       </c>
-      <c r="B99">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2.5830000000000002</v>
       </c>
-      <c r="B100">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2.4780000000000002</v>
-      </c>
-      <c r="B101">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
